--- a/F_dataset/ChEMBL/TRKA/TRKA_preprocessing/TRKA_g1.xlsx
+++ b/F_dataset/ChEMBL/TRKA/TRKA_preprocessing/TRKA_g1.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A5150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A52A0&gt;</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A50E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A5B60&gt;</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A5230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A5310&gt;</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A52A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A5380&gt;</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A5380&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A53F0&gt;</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1241,7 +1241,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A53F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A54D0&gt;</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1358,7 +1358,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A5460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A5540&gt;</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A5540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A5620&gt;</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A5700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A57E0&gt;</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1705,7 +1705,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A5770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A5770&gt;</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A57E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A58C0&gt;</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A5850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A5930&gt;</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2044,7 +2044,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A58C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A59A0&gt;</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2157,7 +2157,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A5930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A5A10&gt;</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2270,7 +2270,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A5AF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A5BD0&gt;</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A5B60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A5D20&gt;</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2492,7 +2492,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A5CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A5460&gt;</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2605,7 +2605,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A5BD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A51C0&gt;</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2718,7 +2718,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A5D20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A5D90&gt;</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2827,7 +2827,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A5D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A5E00&gt;</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A5E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A5E70&gt;</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3045,7 +3045,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A5E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A5EE0&gt;</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A5EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A5F50&gt;</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A5F50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A5FC0&gt;</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3388,7 +3388,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A5FC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A6030&gt;</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3501,7 +3501,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A6030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A60A0&gt;</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3618,7 +3618,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A60A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A6110&gt;</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3731,7 +3731,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A6110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A6180&gt;</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3840,7 +3840,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A6180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A61F0&gt;</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3953,7 +3953,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A61F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A6260&gt;</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A6260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A62D0&gt;</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -4179,7 +4179,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A62D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A6340&gt;</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -4292,7 +4292,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A6340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A63B0&gt;</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4405,7 +4405,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A63B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A6420&gt;</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4518,7 +4518,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A6420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A6490&gt;</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -4631,7 +4631,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A6490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A6500&gt;</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A6500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A6570&gt;</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4857,7 +4857,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A6570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A65E0&gt;</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4966,7 +4966,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A65E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A6650&gt;</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A6650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A66C0&gt;</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A66C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A6730&gt;</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A6730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A67A0&gt;</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A67A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A6810&gt;</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A6810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A6880&gt;</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5636,7 +5636,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A6880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A68F0&gt;</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A68F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A6960&gt;</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A6960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A69D0&gt;</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -5971,7 +5971,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A69D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A6A40&gt;</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -6084,7 +6084,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A6A40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A6AB0&gt;</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -6197,7 +6197,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000159F53A6AB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002BA1E3A6B20&gt;</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
